--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Tgfbr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H2">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N2">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O2">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P2">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q2">
-        <v>9.876651209809998</v>
+        <v>28.87300731188755</v>
       </c>
       <c r="R2">
-        <v>88.88986088828999</v>
+        <v>259.857065806988</v>
       </c>
       <c r="S2">
-        <v>0.0008758326196258163</v>
+        <v>0.005565966119435139</v>
       </c>
       <c r="T2">
-        <v>0.0008758326196258163</v>
+        <v>0.00556596611943514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H3">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>46.112413</v>
       </c>
       <c r="O3">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P3">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q3">
-        <v>18.75800187745122</v>
+        <v>36.34717705178711</v>
       </c>
       <c r="R3">
-        <v>168.822016897061</v>
+        <v>327.124593466084</v>
       </c>
       <c r="S3">
-        <v>0.001663404890410232</v>
+        <v>0.007006791977781403</v>
       </c>
       <c r="T3">
-        <v>0.001663404890410232</v>
+        <v>0.007006791977781403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H4">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N4">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O4">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P4">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q4">
-        <v>90.39862052178346</v>
+        <v>84.77965858471644</v>
       </c>
       <c r="R4">
-        <v>813.587584696051</v>
+        <v>763.016927262448</v>
       </c>
       <c r="S4">
-        <v>0.008016285979959879</v>
+        <v>0.01634331686348198</v>
       </c>
       <c r="T4">
-        <v>0.008016285979959879</v>
+        <v>0.01634331686348198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H5">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N5">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O5">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P5">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q5">
-        <v>19.05824234059289</v>
+        <v>20.24002550533688</v>
       </c>
       <c r="R5">
-        <v>171.524181065336</v>
+        <v>182.160229548032</v>
       </c>
       <c r="S5">
-        <v>0.001690029338896359</v>
+        <v>0.003901751383300691</v>
       </c>
       <c r="T5">
-        <v>0.001690029338896359</v>
+        <v>0.003901751383300691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H6">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N6">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O6">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P6">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q6">
-        <v>141.5037169311895</v>
+        <v>341.0877458288426</v>
       </c>
       <c r="R6">
-        <v>1273.533452380706</v>
+        <v>3069.789712459584</v>
       </c>
       <c r="S6">
-        <v>0.01254813685872966</v>
+        <v>0.06575286102103406</v>
       </c>
       <c r="T6">
-        <v>0.01254813685872966</v>
+        <v>0.06575286102103406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H7">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N7">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O7">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P7">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q7">
-        <v>128.3630606581363</v>
+        <v>105.7378173819231</v>
       </c>
       <c r="R7">
-        <v>1155.267545923227</v>
+        <v>951.6403564373079</v>
       </c>
       <c r="S7">
-        <v>0.01138286179102257</v>
+        <v>0.02038350569905803</v>
       </c>
       <c r="T7">
-        <v>0.01138286179102257</v>
+        <v>0.02038350569905803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>40.738953</v>
       </c>
       <c r="I8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N8">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O8">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P8">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q8">
-        <v>109.90269567669</v>
+        <v>165.8084032811136</v>
       </c>
       <c r="R8">
-        <v>989.1242610902099</v>
+        <v>1492.275629530023</v>
       </c>
       <c r="S8">
-        <v>0.009745850472359242</v>
+        <v>0.03196355492212092</v>
       </c>
       <c r="T8">
-        <v>0.009745850472359242</v>
+        <v>0.03196355492212093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>40.738953</v>
       </c>
       <c r="I9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>46.112413</v>
       </c>
       <c r="O9">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P9">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q9">
         <v>208.7301584359543</v>
@@ -1013,10 +1013,10 @@
         <v>1878.571425923589</v>
       </c>
       <c r="S9">
-        <v>0.01850958159545966</v>
+        <v>0.04023775484864447</v>
       </c>
       <c r="T9">
-        <v>0.01850958159545966</v>
+        <v>0.04023775484864447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>40.738953</v>
       </c>
       <c r="I10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N10">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O10">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P10">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q10">
-        <v>1005.913023528678</v>
+        <v>486.8623371581452</v>
       </c>
       <c r="R10">
-        <v>9053.217211758099</v>
+        <v>4381.761034423307</v>
       </c>
       <c r="S10">
-        <v>0.08920143273235985</v>
+        <v>0.09385441717862017</v>
       </c>
       <c r="T10">
-        <v>0.08920143273235985</v>
+        <v>0.09385441717862017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>40.738953</v>
       </c>
       <c r="I11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N11">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O11">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P11">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q11">
-        <v>212.0710920732293</v>
+        <v>116.2319627864746</v>
       </c>
       <c r="R11">
-        <v>1908.639828659064</v>
+        <v>1046.087665078272</v>
       </c>
       <c r="S11">
-        <v>0.01880584584508956</v>
+        <v>0.02240650445160264</v>
       </c>
       <c r="T11">
-        <v>0.01880584584508956</v>
+        <v>0.02240650445160264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>40.738953</v>
       </c>
       <c r="I12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N12">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O12">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P12">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q12">
-        <v>1574.586325733799</v>
+        <v>1958.757323188495</v>
       </c>
       <c r="R12">
-        <v>14171.27693160419</v>
+        <v>17628.81590869646</v>
       </c>
       <c r="S12">
-        <v>0.1396297223824867</v>
+        <v>0.3775975525962591</v>
       </c>
       <c r="T12">
-        <v>0.1396297223824867</v>
+        <v>0.3775975525962591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>40.738953</v>
       </c>
       <c r="I13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N13">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O13">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P13">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q13">
-        <v>1428.363328010147</v>
+        <v>607.2183086833602</v>
       </c>
       <c r="R13">
-        <v>12855.26995209132</v>
+        <v>5464.964778150242</v>
       </c>
       <c r="S13">
-        <v>0.1266630934689696</v>
+        <v>0.1170559234347848</v>
       </c>
       <c r="T13">
-        <v>0.1266630934689696</v>
+        <v>0.1170559234347848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H14">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I14">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J14">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N14">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O14">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P14">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q14">
-        <v>152.95612214932</v>
+        <v>48.04233514609244</v>
       </c>
       <c r="R14">
-        <v>1376.60509934388</v>
+        <v>432.381016314832</v>
       </c>
       <c r="S14">
-        <v>0.01356370274742368</v>
+        <v>0.009261314792505323</v>
       </c>
       <c r="T14">
-        <v>0.01356370274742367</v>
+        <v>0.009261314792505325</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H15">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I15">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J15">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>46.112413</v>
       </c>
       <c r="O15">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P15">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q15">
-        <v>290.4983850796324</v>
+        <v>60.47874551735288</v>
       </c>
       <c r="R15">
-        <v>2614.485465716692</v>
+        <v>544.308709656176</v>
       </c>
       <c r="S15">
-        <v>0.02576054942070372</v>
+        <v>0.01165873179954248</v>
       </c>
       <c r="T15">
-        <v>0.02576054942070372</v>
+        <v>0.01165873179954248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H16">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I16">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J16">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N16">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O16">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P16">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q16">
-        <v>1399.970713648997</v>
+        <v>141.0664544673635</v>
       </c>
       <c r="R16">
-        <v>12599.73642284097</v>
+        <v>1269.598090206272</v>
       </c>
       <c r="S16">
-        <v>0.1241453192471512</v>
+        <v>0.02719394961781193</v>
       </c>
       <c r="T16">
-        <v>0.1241453192471512</v>
+        <v>0.02719394961781193</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H17">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I17">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J17">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N17">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O17">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P17">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q17">
-        <v>295.1481004516658</v>
+        <v>33.6777557733831</v>
       </c>
       <c r="R17">
-        <v>2656.332904064991</v>
+        <v>303.099801960448</v>
       </c>
       <c r="S17">
-        <v>0.02617287261692609</v>
+        <v>0.00649219686707471</v>
       </c>
       <c r="T17">
-        <v>0.02617287261692608</v>
+        <v>0.00649219686707471</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H18">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I18">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J18">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N18">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O18">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P18">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q18">
-        <v>2191.416842786959</v>
+        <v>567.5422591877973</v>
       </c>
       <c r="R18">
-        <v>19722.75158508263</v>
+        <v>5107.880332690176</v>
       </c>
       <c r="S18">
-        <v>0.1943284533733333</v>
+        <v>0.1094074112843233</v>
       </c>
       <c r="T18">
-        <v>0.1943284533733332</v>
+        <v>0.1094074112843233</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H19">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I19">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J19">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N19">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O19">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P19">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q19">
-        <v>1987.912255723382</v>
+        <v>175.9391256132569</v>
       </c>
       <c r="R19">
-        <v>17891.21030151044</v>
+        <v>1583.452130519312</v>
       </c>
       <c r="S19">
-        <v>0.1762822602044656</v>
+        <v>0.0339164951426188</v>
       </c>
       <c r="T19">
-        <v>0.1762822602044656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.102695</v>
-      </c>
-      <c r="I20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>8.093189999999998</v>
-      </c>
-      <c r="N20">
-        <v>24.27957</v>
-      </c>
-      <c r="O20">
-        <v>0.02420995323843489</v>
-      </c>
-      <c r="P20">
-        <v>0.02420995323843489</v>
-      </c>
-      <c r="Q20">
-        <v>0.2770433823499999</v>
-      </c>
-      <c r="R20">
-        <v>2.49339044115</v>
-      </c>
-      <c r="S20">
-        <v>2.456739902615888E-05</v>
-      </c>
-      <c r="T20">
-        <v>2.456739902615888E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.102695</v>
-      </c>
-      <c r="I21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>15.37080433333333</v>
-      </c>
-      <c r="N21">
-        <v>46.112413</v>
-      </c>
-      <c r="O21">
-        <v>0.04598019497220904</v>
-      </c>
-      <c r="P21">
-        <v>0.04598019497220904</v>
-      </c>
-      <c r="Q21">
-        <v>0.5261682503372223</v>
-      </c>
-      <c r="R21">
-        <v>4.735514253035001</v>
-      </c>
-      <c r="S21">
-        <v>4.665906563543079E-05</v>
-      </c>
-      <c r="T21">
-        <v>4.665906563543079E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.102695</v>
-      </c>
-      <c r="I22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>74.07502766666667</v>
-      </c>
-      <c r="N22">
-        <v>222.225083</v>
-      </c>
-      <c r="O22">
-        <v>0.2215878974725382</v>
-      </c>
-      <c r="P22">
-        <v>0.2215878974725382</v>
-      </c>
-      <c r="Q22">
-        <v>2.535711655409445</v>
-      </c>
-      <c r="R22">
-        <v>22.821404898685</v>
-      </c>
-      <c r="S22">
-        <v>0.0002248595130672527</v>
-      </c>
-      <c r="T22">
-        <v>0.0002248595130672527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.102695</v>
-      </c>
-      <c r="I23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>15.61682933333333</v>
-      </c>
-      <c r="N23">
-        <v>46.850488</v>
-      </c>
-      <c r="O23">
-        <v>0.04671615369126616</v>
-      </c>
-      <c r="P23">
-        <v>0.04671615369126616</v>
-      </c>
-      <c r="Q23">
-        <v>0.5345900961288889</v>
-      </c>
-      <c r="R23">
-        <v>4.81131086516</v>
-      </c>
-      <c r="S23">
-        <v>4.740589035416478E-05</v>
-      </c>
-      <c r="T23">
-        <v>4.740589035416478E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.102695</v>
-      </c>
-      <c r="I24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>115.9518993333333</v>
-      </c>
-      <c r="N24">
-        <v>347.855698</v>
-      </c>
-      <c r="O24">
-        <v>0.3468582920662569</v>
-      </c>
-      <c r="P24">
-        <v>0.3468582920662569</v>
-      </c>
-      <c r="Q24">
-        <v>3.969226767345555</v>
-      </c>
-      <c r="R24">
-        <v>35.72304090611</v>
-      </c>
-      <c r="S24">
-        <v>0.0003519794517073003</v>
-      </c>
-      <c r="T24">
-        <v>0.0003519794517073003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.102695</v>
-      </c>
-      <c r="I25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>105.184097</v>
-      </c>
-      <c r="N25">
-        <v>315.552291</v>
-      </c>
-      <c r="O25">
-        <v>0.3146475085592949</v>
-      </c>
-      <c r="P25">
-        <v>0.3146475085592949</v>
-      </c>
-      <c r="Q25">
-        <v>3.600626947138333</v>
-      </c>
-      <c r="R25">
-        <v>32.405642524245</v>
-      </c>
-      <c r="S25">
-        <v>0.0003192930948371657</v>
-      </c>
-      <c r="T25">
-        <v>0.0003192930948371657</v>
+        <v>0.0339164951426188</v>
       </c>
     </row>
   </sheetData>
